--- a/测试记录/20180815.xlsx
+++ b/测试记录/20180815.xlsx
@@ -357,9 +357,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -429,21 +429,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,7 +459,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,9 +487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +496,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,31 +526,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,7 +550,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,13 +599,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,13 +689,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,13 +749,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,133 +779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,39 +795,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,11 +828,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,19 +861,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,10 +898,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,137 +910,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,6 +1079,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1711,7 +1714,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2794,7 +2797,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D54" t="s">
@@ -2836,7 +2839,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D57" t="s">
@@ -2864,7 +2867,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D59" t="s">
@@ -2878,7 +2881,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D60" t="s">
@@ -2906,7 +2909,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="14" t="s">
         <v>97</v>
       </c>
       <c r="D62" t="s">
